--- a/materials/table01.xlsx
+++ b/materials/table01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Dropbox\fondecyt regular 2015\Estudio cuantitativo\merit-scale\materials\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JC\Dropbox\fondecyt regular 2015\Estudio cuantitativo\merit-scale\materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7EA7CB2-F333-4C51-8D5D-05B1A11A3ACC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -83,9 +84,6 @@
     <t>dimension</t>
   </si>
   <si>
-    <t xml:space="preserve">En Chile, quienes más se esfuerzanlogran obtener mayores recompensas.                                  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Quienes más se  esfuerzan deberían obtener mayores recompensas que quienes se    esfuerzan menos     </t>
   </si>
   <si>
@@ -96,12 +94,15 @@
   </si>
   <si>
     <t xml:space="preserve">Quienes poseen  más talento deberían obtener mayores recompensas que quienes tienen menos talento </t>
+  </si>
+  <si>
+    <t xml:space="preserve">En Chile, quienes más se esfuerzan logran obtener mayores recompensas.                                  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,21 +413,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.28515625" customWidth="1"/>
-    <col min="3" max="3" width="72.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="99.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" customWidth="1"/>
+    <col min="3" max="3" width="72.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="99.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -440,7 +441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -451,10 +452,10 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -468,7 +469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -482,7 +483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -496,7 +497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -507,10 +508,10 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -521,10 +522,10 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -535,10 +536,10 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -549,7 +550,7 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
